--- a/wc3-hw1-TranNgocLam/registration_TC.xlsx
+++ b/wc3-hw1-TranNgocLam/registration_TC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\WC3-Homework\wc3-hw1-TranNgocLam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5179A82-08C4-4693-9BAC-AC9F719808E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBA5A00-5A2E-4FF2-8001-7E091266D45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D5C06684-A1C2-4990-A084-4BB9B2236277}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D5C06684-A1C2-4990-A084-4BB9B2236277}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo QA - Registration form" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>Test ID</t>
   </si>
@@ -137,13 +137,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Verify that user can submit successfully with valid input in all data fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Verify that user can submit successfully with valid data in required data fields</t>
-  </si>
-  <si>
     <t>1. Open the website
 2. Click on the "Submit" button.</t>
   </si>
@@ -152,9 +145,6 @@
   </si>
   <si>
     <t>Verify that user cannot submit with empty data fields.</t>
-  </si>
-  <si>
-    <t>Verify that user cannot submit with empty data fields.6:9</t>
   </si>
   <si>
     <t>Verify that user cannot submit with invalid data:
@@ -259,11 +249,6 @@
 Mobile: 1763212508</t>
   </si>
   <si>
-    <t>Verify that user cannot submit with invalid data:
-- Email includes invalid domain.
-- Phone numbers begin with a phone code instead of 0.</t>
-  </si>
-  <si>
     <t>First Name: Lam
 Last Name: Tran
 Gender: Female
@@ -289,12 +274,124 @@
 Gender: Female
 Mobile: 07932025</t>
   </si>
+  <si>
+    <t>Verify that user cannot submit with invalid data:
+- Email's domain lacks of ".com".
+- Phone numbers begin with a phone code instead of 0.</t>
+  </si>
+  <si>
+    <t>TCRegister#10</t>
+  </si>
+  <si>
+    <t>Verify that user cannot submit with already registered mobile phone and email.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- First registration:
+1. Open the website
+2. Input valid First Name.
+3. Input valid Last Name.
+4. Input valid Email.
+5. Select a gender.
+6. Input valid Mobile.
+7. Click on the "Submit" button.
+8. Click "Close" button.
+- Second registration:
+1. Open the website
+2. Input valid First Name.
+3. Input valid Last Name.
+4. Input registered valid Email.
+5. Select a gender.
+6. Input registered valid Mobile.
+7. Click on the "Submit" button.
+8. Click "Close" button.</t>
+  </si>
+  <si>
+    <t>First Name: Lam
+Last Name: Tran
+Gender: Female
+Email: ngoclam@gmail.com
+Mobile: 0763212508</t>
+  </si>
+  <si>
+    <t>1. First registration: Submit successfully.
+2. Second registration:
+Display warnings (!) in the following data fields: Email, Mobile
+Can not submit form.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. First registration:
+2. Secon registration:
+</t>
+  </si>
+  <si>
+    <t>TCRegister#11</t>
+  </si>
+  <si>
+    <t>Verify that user cannot submit with:
+- First name, Last name, Current Adress have more than 255 characters.
+- Picture file's size exceeds limit file size 2MB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Open the website
+2. Input valid First Name.
+3. Input valid Last Name.
+4. Select a gender.
+5. Input valid Mobile.
+6. Click on the "Submit" button.</t>
+  </si>
+  <si>
+    <t>First Name: TranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLam
+Last Name: TranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLamTranNgocLam
+Gender: Female
+Mobile: 0763212508
+Current Address: HCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCityHCMCity</t>
+  </si>
+  <si>
+    <t>Display warnings (!) in the following data fields: First name, Last name, Current address
+Can not submit form.</t>
+  </si>
+  <si>
+    <t>Verify that user submits successfully with valid input in all data fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Verify that user submits successfully with valid data in required data fields</t>
+  </si>
+  <si>
+    <t>TCRegister#12</t>
+  </si>
+  <si>
+    <t>Verify that user submit successfully when first name, last name, current adrress have abundant space  at the begin and end of input data:
+- First name, Last name, Current Adress have more than 255 characters.
+- Picture file's size exceeds limit file size 2MB.</t>
+  </si>
+  <si>
+    <t>First Name:"  Lam  "
+Last Name: "  Tran  "
+Gender: Female
+Mobile: 0763212508
+Current address: "  HCM city  "</t>
+  </si>
+  <si>
+    <t>Submit successfully, thr form automatically trims the space.</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>Usert submits successfully</t>
+  </si>
+  <si>
+    <t>Usert cannot submit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,16 +412,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -332,30 +482,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -364,6 +618,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEEB8EF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -379,16 +638,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3124133</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2494315</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2759868</xdr:rowOff>
+      <xdr:rowOff>2204528</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -411,8 +670,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13442950" y="381000"/>
-          <a:ext cx="3124133" cy="2848768"/>
+          <a:off x="18391038" y="419340"/>
+          <a:ext cx="2494315" cy="2204528"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -423,16 +682,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2092325</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1872575</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1900974</xdr:rowOff>
+      <xdr:rowOff>1701321</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -455,8 +714,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13442950" y="3238500"/>
-          <a:ext cx="2089150" cy="1900974"/>
+          <a:off x="18391038" y="2995283"/>
+          <a:ext cx="1872575" cy="1701321"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -467,15 +726,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>3330746</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1063680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -511,9 +770,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2130425" cy="986237"/>
@@ -550,15 +809,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>5006698</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>854075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -594,15 +853,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2662757</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>2441448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -638,59 +897,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2819400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>455195</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>298649</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F854A57B-2780-6A66-F114-3281C76CE79C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18440400" y="9258300"/>
-          <a:ext cx="8392695" cy="1428949"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4800600</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>831273</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -707,7 +922,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -726,15 +941,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2586366</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2377440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -751,7 +966,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -770,15 +985,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>5800730</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1044575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -795,7 +1010,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -814,15 +1029,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>3448050</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>28129</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -839,7 +1054,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -856,6 +1071,177 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1754910</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3683607</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1858818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C8B99D3-AD85-6D10-9E63-8904248D8CF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18114819" y="18068637"/>
+          <a:ext cx="1928697" cy="1789545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1743365</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2205183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3604130</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3925454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE25A0A-C761-C46B-912B-BBACF79E06E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18103274" y="20204547"/>
+          <a:ext cx="1860765" cy="1720271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>46181</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3824625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4130597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEBC774F-E893-B272-88C2-9C912DCF130D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16406090" y="22086454"/>
+          <a:ext cx="3778444" cy="4095961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1743363" cy="1606799"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D74886F-1C90-4126-8E03-74F0755EC7CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17191182" y="28609636"/>
+          <a:ext cx="1743363" cy="1606799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1156,319 +1542,429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD9765C-88F0-4954-8592-D53FEDCC6EDF}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="53" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="79.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.54296875" customWidth="1"/>
+    <col min="7" max="7" width="70.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="88.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="25"/>
+    <col min="10" max="10" width="75.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:10" ht="203" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="153.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="1:10" ht="101.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="1:10" ht="203.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" ht="202.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="H9" s="21"/>
+      <c r="I9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="205.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" ht="319" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="101.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="4" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" ht="362.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
